--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/153.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/153.xlsx
@@ -479,13 +479,13 @@
         <v>-13.82962060229049</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.2937373603802</v>
+        <v>-11.29059520769819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6530544442090459</v>
+        <v>0.6611585796680743</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.209966798978406</v>
+        <v>-5.197267265221931</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.16299456573107</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.48001464521228</v>
+        <v>-11.47794606136329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7309143692087908</v>
+        <v>0.7389137662450855</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.095513887536036</v>
+        <v>-5.081531308101073</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.39321233812994</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.0232797516297</v>
+        <v>-12.02087076790682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7414143960878552</v>
+        <v>0.7488115471934303</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.788303001354934</v>
+        <v>-4.775551098387092</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.61918183858777</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71320483448014</v>
+        <v>-12.70997103567823</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7550827602546172</v>
+        <v>0.7624013575431421</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.872041370330614</v>
+        <v>-4.861122389760614</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.83164514437498</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31554241131943</v>
+        <v>-13.31152307434702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7850379491564864</v>
+        <v>0.7928278693473134</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.158890542238953</v>
+        <v>-4.148521438388306</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.06380208576852</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.59063787862978</v>
+        <v>-13.5850605576192</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9029210439433879</v>
+        <v>0.9110644563109416</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.170490322556723</v>
+        <v>-4.159689172712299</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.325325237930038</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.16566491174123</v>
+        <v>-14.16130517489494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9791575233907588</v>
+        <v>0.9884792430140678</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.755817814650733</v>
+        <v>-3.747019787141093</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.6282433480887</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.96035460193116</v>
+        <v>-14.95499985006889</v>
       </c>
       <c r="F9" t="n">
-        <v>1.203716701732044</v>
+        <v>1.21119240665467</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.383433444923518</v>
+        <v>-3.374373571357044</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.985763386609344</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.55433928955743</v>
+        <v>-15.54948204520315</v>
       </c>
       <c r="F10" t="n">
-        <v>1.251451237892978</v>
+        <v>1.25935898880938</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.681123043584807</v>
+        <v>-2.670269524529016</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.396904278086161</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.1607485725805</v>
+        <v>-16.15365254444028</v>
       </c>
       <c r="F11" t="n">
-        <v>1.196646858197512</v>
+        <v>1.203350117252476</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.230760918132272</v>
+        <v>-2.219174230117344</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.881976113255072</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.63015999866775</v>
+        <v>-16.62369240106393</v>
       </c>
       <c r="F12" t="n">
-        <v>1.224454909433338</v>
+        <v>1.230582107163266</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.809254228142901</v>
+        <v>-1.798426893692793</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.435497882883171</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.4262374729589</v>
+        <v>-17.41931164475563</v>
       </c>
       <c r="F13" t="n">
-        <v>1.44701096543984</v>
+        <v>1.452143148153797</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.016737860224697</v>
+        <v>-1.003985957256856</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.07555900355242</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.23934803324714</v>
+        <v>-18.23345649696836</v>
       </c>
       <c r="F14" t="n">
-        <v>1.649784551852493</v>
+        <v>1.654340673241414</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8224873629620071</v>
+        <v>-0.81097922876413</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.796530644207994</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.08272799770545</v>
+        <v>-19.07713758439203</v>
       </c>
       <c r="F15" t="n">
-        <v>1.698461733818031</v>
+        <v>1.703410624292203</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3913316457782843</v>
+        <v>-0.3796140347349394</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.60288232816672</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.08076733563307</v>
+        <v>-20.07608029121573</v>
       </c>
       <c r="F16" t="n">
-        <v>2.022784259813269</v>
+        <v>2.028701980697729</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1780656971112242</v>
+        <v>0.1907521385648567</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.487929876758429</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.79233399508088</v>
+        <v>-20.78748984302944</v>
       </c>
       <c r="F17" t="n">
-        <v>2.082118576291971</v>
+        <v>2.087486420457079</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2753022303167237</v>
+        <v>0.2864306877321908</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.437832536052375</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.70277273469451</v>
+        <v>-21.69813805948854</v>
       </c>
       <c r="F18" t="n">
-        <v>2.201284716757362</v>
+        <v>2.207647575938441</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8365561608386785</v>
+        <v>0.8481166642479226</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.44593208345951</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.71266060669389</v>
+        <v>-22.7086150851158</v>
       </c>
       <c r="F19" t="n">
-        <v>2.300812402960164</v>
+        <v>2.306180247125271</v>
       </c>
       <c r="G19" t="n">
-        <v>1.051623419619713</v>
+        <v>1.062490030978345</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.493598988766087</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.068758151686</v>
+        <v>-23.06253930783618</v>
       </c>
       <c r="F20" t="n">
-        <v>2.601464045417561</v>
+        <v>2.606622412737201</v>
       </c>
       <c r="G20" t="n">
-        <v>1.65787559500868</v>
+        <v>1.671229743907241</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.583180111485916</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02617207389574</v>
+        <v>-24.0213279218443</v>
       </c>
       <c r="F21" t="n">
-        <v>2.722410739069427</v>
+        <v>2.727726214023167</v>
       </c>
       <c r="G21" t="n">
-        <v>1.761226233641266</v>
+        <v>1.773506813706805</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.698841963359605</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.36636247093515</v>
+        <v>-24.35943664273188</v>
       </c>
       <c r="F22" t="n">
-        <v>2.806960830821294</v>
+        <v>2.811150367730646</v>
       </c>
       <c r="G22" t="n">
-        <v>2.032027425619527</v>
+        <v>2.044674590164635</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.846157060826409</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.9017591033447</v>
+        <v>-24.89472853671869</v>
       </c>
       <c r="F23" t="n">
-        <v>2.740739963047843</v>
+        <v>2.744248700209426</v>
       </c>
       <c r="G23" t="n">
-        <v>2.579495161249145</v>
+        <v>2.593006417781806</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.015852798328297</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.44052045758457</v>
+        <v>-25.43444562906601</v>
       </c>
       <c r="F24" t="n">
-        <v>2.622961606683675</v>
+        <v>2.625684805674754</v>
       </c>
       <c r="G24" t="n">
-        <v>2.369520808273542</v>
+        <v>2.382770218749369</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.209485376279162</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58289925098834</v>
+        <v>-25.57677205325841</v>
       </c>
       <c r="F25" t="n">
-        <v>2.744877130745829</v>
+        <v>2.745845961156116</v>
       </c>
       <c r="G25" t="n">
-        <v>2.275910842955201</v>
+        <v>2.289238807248078</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.420487188530712</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.66264446759729</v>
+        <v>-25.65768248482028</v>
       </c>
       <c r="F26" t="n">
-        <v>2.912380053302872</v>
+        <v>2.914343898729131</v>
       </c>
       <c r="G26" t="n">
-        <v>2.27719388863369</v>
+        <v>2.29183108321074</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.638700940152305</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.41834209657069</v>
+        <v>-25.41190068357255</v>
       </c>
       <c r="F27" t="n">
-        <v>2.609214688699863</v>
+        <v>2.61070721122382</v>
       </c>
       <c r="G27" t="n">
-        <v>1.986178181067803</v>
+        <v>1.999165745486795</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.856729287050341</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.51510730687388</v>
+        <v>-25.51043335475939</v>
       </c>
       <c r="F28" t="n">
-        <v>2.876533328122226</v>
+        <v>2.878575727365535</v>
       </c>
       <c r="G28" t="n">
-        <v>1.942737920238956</v>
+        <v>1.95551600781248</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.056486045661366</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73507108691772</v>
+        <v>-25.7291664583361</v>
       </c>
       <c r="F29" t="n">
-        <v>2.701986746636334</v>
+        <v>2.703767299822809</v>
       </c>
       <c r="G29" t="n">
-        <v>1.846038171449967</v>
+        <v>1.859209028108743</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.23372416841306</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.38170983321953</v>
+        <v>-25.37767740394428</v>
       </c>
       <c r="F30" t="n">
-        <v>2.6762472792495</v>
+        <v>2.677504140322306</v>
       </c>
       <c r="G30" t="n">
-        <v>1.984214335641544</v>
+        <v>1.996913869398018</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.369419568687914</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.61189551842888</v>
+        <v>-24.60568976688191</v>
       </c>
       <c r="F31" t="n">
-        <v>2.587036327685979</v>
+        <v>2.588633588632669</v>
       </c>
       <c r="G31" t="n">
-        <v>1.456201762034732</v>
+        <v>1.468299049860486</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.463522333019196</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.74181043952733</v>
+        <v>-24.73578798022014</v>
       </c>
       <c r="F32" t="n">
-        <v>2.567816827114325</v>
+        <v>2.568864211341663</v>
       </c>
       <c r="G32" t="n">
-        <v>1.569109781741777</v>
+        <v>1.581940238526669</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.505958015982945</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.16945423619559</v>
+        <v>-24.16326157695146</v>
       </c>
       <c r="F33" t="n">
-        <v>2.623092529712093</v>
+        <v>2.624977821321301</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8034195423462698</v>
+        <v>0.8142730614020607</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.501741913484958</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.52176492231256</v>
+        <v>-23.51529732470875</v>
       </c>
       <c r="F34" t="n">
-        <v>2.601097460937993</v>
+        <v>2.60342789084382</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7356014136261287</v>
+        <v>0.7459443328710924</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.453572479863894</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.8822844823113</v>
+        <v>-22.87600017694727</v>
       </c>
       <c r="F35" t="n">
-        <v>2.476432553279077</v>
+        <v>2.479548521355408</v>
       </c>
       <c r="G35" t="n">
-        <v>0.791322254520515</v>
+        <v>0.8029351271411259</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.365638132778675</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.07871821079468</v>
+        <v>-22.0719494902255</v>
       </c>
       <c r="F36" t="n">
-        <v>2.329170330915342</v>
+        <v>2.332443406625774</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8122175698559098</v>
+        <v>0.8234769502997942</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.248326968031388</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.12799445533705</v>
+        <v>-21.11905241249615</v>
       </c>
       <c r="F37" t="n">
-        <v>2.369468439062175</v>
+        <v>2.373788898999945</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7502778851117037</v>
+        <v>0.7625715574800845</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.105440047398684</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.00479588559641</v>
+        <v>-20.99725471915957</v>
       </c>
       <c r="F38" t="n">
-        <v>2.199844563444772</v>
+        <v>2.202855793098369</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4540252564091262</v>
+        <v>0.4640277757802049</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.957268616821211</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.14736788018893</v>
+        <v>-20.13860912958781</v>
       </c>
       <c r="F39" t="n">
-        <v>2.440454905070014</v>
+        <v>2.44558708778397</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2888789483635936</v>
+        <v>0.2974020375135573</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.806965631972766</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.62992079497539</v>
+        <v>-19.62020630626683</v>
       </c>
       <c r="F40" t="n">
-        <v>2.279864718413402</v>
+        <v>2.283923332294337</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0349198855179755</v>
+        <v>-0.02592547346570969</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.674961916086457</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.67228430361734</v>
+        <v>-18.66081544632798</v>
       </c>
       <c r="F41" t="n">
-        <v>2.497039837951954</v>
+        <v>2.501517405523825</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.09861393884297283</v>
+        <v>-0.08878161940883655</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.564194195035175</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.4104644313885</v>
+        <v>-18.4004880966231</v>
       </c>
       <c r="F42" t="n">
-        <v>2.50489521965699</v>
+        <v>2.508220664578788</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3467785392078904</v>
+        <v>-0.3377448502470994</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.487667625276609</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.48618712767116</v>
+        <v>-17.47704870028764</v>
       </c>
       <c r="F43" t="n">
-        <v>2.858413580989277</v>
+        <v>2.861948502756543</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3538876596509477</v>
+        <v>-0.344408832393538</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.447017807103149</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.0365058019664</v>
+        <v>-17.02523332921967</v>
       </c>
       <c r="F44" t="n">
-        <v>2.792637851512445</v>
+        <v>2.797193972901366</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6817843843219771</v>
+        <v>-0.6738111718913659</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.44030627755535</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.30811553336697</v>
+        <v>-16.29520652276502</v>
       </c>
       <c r="F45" t="n">
-        <v>2.739090332889786</v>
+        <v>2.74367263888439</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7269397368230903</v>
+        <v>-0.7189010628782705</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.465515494412631</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.8327994786981</v>
+        <v>-15.82013922185015</v>
       </c>
       <c r="F46" t="n">
-        <v>2.904917440683088</v>
+        <v>2.908740393112872</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8898079841741626</v>
+        <v>-0.8817693102293428</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.509122429342781</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.09656692069648</v>
+        <v>-15.08348771015759</v>
       </c>
       <c r="F47" t="n">
-        <v>2.880225357523593</v>
+        <v>2.884519632855679</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.222797614650623</v>
+        <v>-1.214091233260876</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.569213358665152</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.44733271507812</v>
+        <v>-14.43399165848241</v>
       </c>
       <c r="F48" t="n">
-        <v>2.74519134601403</v>
+        <v>2.748988113838131</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.261184246582564</v>
+        <v>-1.253250311060478</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.625336306100528</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.83740160259063</v>
+        <v>-13.82427002284038</v>
       </c>
       <c r="F49" t="n">
-        <v>3.143773413727538</v>
+        <v>3.147779658397106</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.448810038607341</v>
+        <v>-1.439187196018672</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.675612275683095</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.23981653168289</v>
+        <v>-13.22826912057648</v>
       </c>
       <c r="F50" t="n">
-        <v>3.197504224589982</v>
+        <v>3.202374561247104</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.405134116327342</v>
+        <v>-1.394620997145436</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.703598256179389</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.3853342944148</v>
+        <v>-12.37377379100555</v>
       </c>
       <c r="F51" t="n">
-        <v>3.184411921748256</v>
+        <v>3.187920658909839</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.414678405098961</v>
+        <v>-1.402725132604465</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.709256105414695</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.36707053195059</v>
+        <v>-12.35812848910969</v>
       </c>
       <c r="F52" t="n">
-        <v>3.146339505084517</v>
+        <v>3.150790888050703</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.510605708020287</v>
+        <v>-1.498495327891691</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.689556685051182</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.56248306081231</v>
+        <v>-11.55301732585774</v>
       </c>
       <c r="F53" t="n">
-        <v>3.422796571890404</v>
+        <v>3.427745462364577</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.657475161298771</v>
+        <v>-1.645325504261649</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.648348578384908</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.32621936373052</v>
+        <v>-11.31738205931236</v>
       </c>
       <c r="F54" t="n">
-        <v>3.079071253083728</v>
+        <v>3.08326078999308</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.7227795678733</v>
+        <v>-1.710119311025351</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.595573543957296</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.74689805528699</v>
+        <v>-10.73680388979601</v>
       </c>
       <c r="F55" t="n">
-        <v>2.963047265300352</v>
+        <v>2.966006125742582</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.11105799325037</v>
+        <v>-2.098057336528536</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.535422946684113</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.19037044609089</v>
+        <v>-10.1803941113255</v>
       </c>
       <c r="F56" t="n">
-        <v>3.184857060044875</v>
+        <v>3.188653827868975</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.387907829141509</v>
+        <v>-2.375051187750935</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.48494456368522</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.595613312596962</v>
+        <v>-9.586304685276495</v>
       </c>
       <c r="F57" t="n">
-        <v>3.208658866611133</v>
+        <v>3.212796034309118</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.876748232645878</v>
+        <v>-2.863708299015518</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.443956945509453</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.464716468785385</v>
+        <v>-9.45565659521891</v>
       </c>
       <c r="F58" t="n">
-        <v>3.170979219032645</v>
+        <v>3.17495927909653</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.694909238477144</v>
+        <v>-2.682262073932037</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.428752137331766</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.865311567782641</v>
+        <v>-8.85583274052523</v>
       </c>
       <c r="F59" t="n">
-        <v>3.275036842018684</v>
+        <v>3.281059301325878</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.066521162336697</v>
+        <v>-3.05319319804382</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.436291677262153</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.752783224858005</v>
+        <v>-8.744430335644983</v>
       </c>
       <c r="F60" t="n">
-        <v>3.071713378886678</v>
+        <v>3.077028853840419</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.776775408146457</v>
+        <v>-2.763408166945055</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.473600967363502</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.317071386285361</v>
+        <v>-8.308548297135397</v>
       </c>
       <c r="F61" t="n">
-        <v>3.135996585839553</v>
+        <v>3.142621291077466</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.238135067986042</v>
+        <v>-3.22598541094892</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.534853823194285</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.945407093214442</v>
+        <v>-7.936451958070701</v>
       </c>
       <c r="F62" t="n">
-        <v>2.944534749082151</v>
+        <v>2.950661946812079</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.359736376779994</v>
+        <v>-3.348280611793484</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.614146140384439</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.757218332167471</v>
+        <v>-7.750096119421572</v>
       </c>
       <c r="F63" t="n">
-        <v>3.235079133745736</v>
+        <v>3.241625285166599</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.338003154062729</v>
+        <v>-3.326612850590427</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.704109506702705</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.493264414575432</v>
+        <v>-7.486469509400576</v>
       </c>
       <c r="F64" t="n">
-        <v>3.092477771193656</v>
+        <v>3.099861829996389</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.669369338986816</v>
+        <v>-3.658830035199226</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.788961221806008</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.209004335275876</v>
+        <v>-7.202458183855012</v>
       </c>
       <c r="F65" t="n">
-        <v>3.193707456765881</v>
+        <v>3.200541638849263</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.703710449340663</v>
+        <v>-3.693315160884333</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.862287816159683</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.993387199775489</v>
+        <v>-6.987168355925669</v>
       </c>
       <c r="F66" t="n">
-        <v>3.040606067334737</v>
+        <v>3.047780649292003</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.759313459509474</v>
+        <v>-3.750083386006057</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.903487610797106</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.093778977965844</v>
+        <v>-7.089667994873542</v>
       </c>
       <c r="F67" t="n">
-        <v>3.040501328912003</v>
+        <v>3.047387880206751</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.649272654124766</v>
+        <v>-3.639270134753687</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.90793094096855</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.783281923771469</v>
+        <v>-6.777992633423412</v>
       </c>
       <c r="F68" t="n">
-        <v>3.007063587454235</v>
+        <v>3.013609738875098</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.623336802195307</v>
+        <v>-3.614119820994731</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.858495373116874</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.961206319390526</v>
+        <v>-6.957330997749375</v>
       </c>
       <c r="F69" t="n">
-        <v>2.764044262106116</v>
+        <v>2.771716351571367</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.66477394068937</v>
+        <v>-3.655687882517212</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.751807169938329</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.711392088867551</v>
+        <v>-6.705971875491076</v>
       </c>
       <c r="F70" t="n">
-        <v>2.830134206851149</v>
+        <v>2.837518265653882</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.472880057938191</v>
+        <v>-3.463571430617723</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.580705185257485</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.633623809987698</v>
+        <v>-6.627640627589029</v>
       </c>
       <c r="F71" t="n">
-        <v>2.734089073204246</v>
+        <v>2.741682608852448</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.466556475665637</v>
+        <v>-3.457260940648011</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.345689647850394</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.806520761315532</v>
+        <v>-6.800066256014562</v>
       </c>
       <c r="F72" t="n">
-        <v>2.88399594074201</v>
+        <v>2.892898706674383</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.342428352423232</v>
+        <v>-3.332884063651614</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.051981410279856</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.953560414530958</v>
+        <v>-6.946569124813476</v>
       </c>
       <c r="F73" t="n">
-        <v>2.635320740566265</v>
+        <v>2.642861907003099</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.26291879726543</v>
+        <v>-3.254146954361473</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.704435937980337</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.225749390610443</v>
+        <v>-7.218666454773069</v>
       </c>
       <c r="F74" t="n">
-        <v>2.770014352201942</v>
+        <v>2.77758170324446</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.232191162495899</v>
+        <v>-3.223419319591942</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.31679668774408</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.396577758089284</v>
+        <v>-7.388892576321192</v>
       </c>
       <c r="F75" t="n">
-        <v>2.321812456718293</v>
+        <v>2.328227685110738</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.967019660739579</v>
+        <v>-2.958247817835622</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.894465986780646</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.833075134832431</v>
+        <v>-7.826712275651353</v>
       </c>
       <c r="F76" t="n">
-        <v>2.571404118092958</v>
+        <v>2.57923331519231</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.893990795488431</v>
+        <v>-2.885127306464582</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.454146552136354</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.152396401142131</v>
+        <v>-8.144671942465513</v>
       </c>
       <c r="F77" t="n">
-        <v>2.416469806263972</v>
+        <v>2.423853865066705</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.766943088712321</v>
+        <v>-2.757280969215127</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.001737698609725</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.502432209918519</v>
+        <v>-8.493293782534995</v>
       </c>
       <c r="F78" t="n">
-        <v>2.310814922331243</v>
+        <v>2.317361073752105</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.604140302875457</v>
+        <v>-2.595119706217508</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.552270260424951</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.9613436091267</v>
+        <v>-8.951877874172133</v>
       </c>
       <c r="F79" t="n">
-        <v>2.425896264310015</v>
+        <v>2.432285308096777</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.319539823702016</v>
+        <v>-2.309838427296297</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.113971318552556</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.356809708763878</v>
+        <v>-9.346440604913232</v>
       </c>
       <c r="F80" t="n">
-        <v>2.134461603053192</v>
+        <v>2.140274585514919</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.767319582140852</v>
+        <v>-1.756439878479378</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.697726961245201</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.993030165357556</v>
+        <v>-9.981430385039788</v>
       </c>
       <c r="F81" t="n">
-        <v>2.278162719043978</v>
+        <v>2.283897147688654</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.871874712634877</v>
+        <v>-1.862500623800201</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.314330047243721</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.64771076895807</v>
+        <v>-10.6351683428357</v>
       </c>
       <c r="F82" t="n">
-        <v>2.258498080175705</v>
+        <v>2.264520539482899</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.64488036596503</v>
+        <v>-1.634694554354167</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.970633785250619</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.24623848567042</v>
+        <v>-11.23287124446902</v>
       </c>
       <c r="F83" t="n">
-        <v>1.935668076704424</v>
+        <v>1.941900012857085</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.239948531373285</v>
+        <v>-1.229998381213573</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.678870052396173</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.1253473445838</v>
+        <v>-12.11074942691527</v>
       </c>
       <c r="F84" t="n">
-        <v>1.996966238609385</v>
+        <v>2.003014882522263</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.093799154751096</v>
+        <v>-1.083115835632248</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.441893762047828</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.7533851119014</v>
+        <v>-12.73749105625154</v>
       </c>
       <c r="F85" t="n">
-        <v>1.91796728326241</v>
+        <v>1.924094480992338</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.7933569891391666</v>
+        <v>-0.7829486083799944</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.271999921526247</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.54287715786316</v>
+        <v>-13.52724494827014</v>
       </c>
       <c r="F86" t="n">
-        <v>1.884739018650109</v>
+        <v>1.890604370323202</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5891563417167651</v>
+        <v>-0.579127637740003</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.169166006641163</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.36487739178093</v>
+        <v>-14.34741225979007</v>
       </c>
       <c r="F87" t="n">
-        <v>1.902832581177375</v>
+        <v>1.908095686919749</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1978405020804147</v>
+        <v>-0.1877463365894439</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.140684865742656</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.55788730362754</v>
+        <v>-15.54000321794574</v>
       </c>
       <c r="F88" t="n">
-        <v>1.92380645032982</v>
+        <v>1.92888626383241</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07982105658691176</v>
+        <v>0.08987594516935737</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.184311736318521</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.48575189832351</v>
+        <v>-16.46612653636376</v>
       </c>
       <c r="F89" t="n">
-        <v>1.662222239552133</v>
+        <v>1.667485345294507</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2620528198408969</v>
+        <v>0.2713614471613641</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.299009709358385</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.88332904207208</v>
+        <v>-17.86372986471802</v>
       </c>
       <c r="F90" t="n">
-        <v>1.624464038156595</v>
+        <v>1.629700959293285</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7240932794282515</v>
+        <v>0.7346456755186828</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.480282609754459</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.02334131201538</v>
+        <v>-19.00202704298905</v>
       </c>
       <c r="F91" t="n">
-        <v>1.312448276832579</v>
+        <v>1.317056767432867</v>
       </c>
       <c r="G91" t="n">
-        <v>0.696062659044116</v>
+        <v>0.7061044553237199</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.718797852925809</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.29833522425687</v>
+        <v>-20.27623541706004</v>
       </c>
       <c r="F92" t="n">
-        <v>1.099855463288631</v>
+        <v>1.104110461712192</v>
       </c>
       <c r="G92" t="n">
-        <v>1.200705472078447</v>
+        <v>1.210406868484166</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.008920198259058</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.88504377485702</v>
+        <v>-21.85971016885828</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9619411451538891</v>
+        <v>0.9658688360064068</v>
       </c>
       <c r="G93" t="n">
-        <v>1.197366934853807</v>
+        <v>1.207277808104994</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.336326803150987</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.50855478874526</v>
+        <v>-23.48127042962311</v>
       </c>
       <c r="F94" t="n">
-        <v>1.066155875774029</v>
+        <v>1.070293043472014</v>
       </c>
       <c r="G94" t="n">
-        <v>1.364319980691498</v>
+        <v>1.375238961261497</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.694864951769806</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.16596177469073</v>
+        <v>-25.13588875506329</v>
       </c>
       <c r="F95" t="n">
-        <v>0.340384067742944</v>
+        <v>0.3428716052828719</v>
       </c>
       <c r="G95" t="n">
-        <v>1.344445864977758</v>
+        <v>1.354998261068189</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.072030869345737</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.93063399781846</v>
+        <v>-26.8984531174335</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5142498494810661</v>
+        <v>0.517221802226138</v>
       </c>
       <c r="G96" t="n">
-        <v>1.05365272656018</v>
+        <v>1.06419203034777</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.456890215923416</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.83504036917594</v>
+        <v>-28.80232270437446</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1212374381534755</v>
+        <v>-0.11892010055049</v>
       </c>
       <c r="G97" t="n">
-        <v>1.232244829624165</v>
+        <v>1.243425656251</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.844017598699794</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.05743259195325</v>
+        <v>-31.02416505043243</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.3870242781433564</v>
+        <v>-0.3850997096256227</v>
       </c>
       <c r="G98" t="n">
-        <v>1.110329305562012</v>
+        <v>1.121025716983703</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.213658368681379</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.22596308083971</v>
+        <v>-33.19154341666881</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3612062569394726</v>
+        <v>-0.3596875498098324</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7337161220169203</v>
+        <v>0.7438233798107328</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.573717984516796</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.18686273895923</v>
+        <v>-35.15054469087628</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4312238925370236</v>
+        <v>-0.4291814932937143</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5433933156067484</v>
+        <v>0.5548490805932587</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.884351608392805</v>
       </c>
       <c r="E101" t="n">
-        <v>-36.99091660903488</v>
+        <v>-36.95307985382229</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.7886961293275122</v>
+        <v>-0.7878582219456417</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.02629205794527802</v>
+        <v>-0.01576584646053027</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.185906286121066</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.29112947990341</v>
+        <v>-39.25368549377608</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6921534881726241</v>
+        <v>-0.6917738113902141</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.5646737354027374</v>
+        <v>-0.5540558777980975</v>
       </c>
     </row>
   </sheetData>
